--- a/Data Files/02_Register New Patient.xlsx
+++ b/Data Files/02_Register New Patient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\Automation-openRMS\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B87842-1DA2-42DD-AA0B-44A27C40F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466A547B-F423-49FB-B8C8-19FD308A7C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4C27A043-8D1D-4237-9AA6-0AEFAC01FC1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C27A043-8D1D-4237-9AA6-0AEFAC01FC1D}"/>
   </bookViews>
   <sheets>
     <sheet name="New Patient" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>TestData</t>
   </si>
@@ -88,15 +88,6 @@
     <t>INDONESIA</t>
   </si>
   <si>
-    <t>AMANDA</t>
-  </si>
-  <si>
-    <t>CHIKITA</t>
-  </si>
-  <si>
-    <t>RAWLES</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -107,6 +98,33 @@
   </si>
   <si>
     <t>AHMED</t>
+  </si>
+  <si>
+    <t>AppointmentType</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>MinTimeFrameValue</t>
+  </si>
+  <si>
+    <t>MaxTimeFrameValue</t>
+  </si>
+  <si>
+    <t>General Medicine</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>GREETINGS</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>VENUS</t>
   </si>
 </sst>
 </file>
@@ -483,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647A0E12-8EBA-462A-B301-F7F8A4C2A9C6}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,9 +519,13 @@
     <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,21 +563,33 @@
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -582,7 +616,19 @@
         <v>10561</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2214C70B-FA41-4317-8F74-3324B37F450A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -606,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -618,7 +664,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,31),"00")</f>
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -627,7 +673,7 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(1900, 2025)</f>
-        <v>1912</v>
+        <v>2014</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/02_Register New Patient.xlsx
+++ b/Data Files/02_Register New Patient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\git\Automation-openRMS\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466A547B-F423-49FB-B8C8-19FD308A7C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAD07AB-7C43-4C47-88AB-C7A4091EF37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C27A043-8D1D-4237-9AA6-0AEFAC01FC1D}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>RelativesName</t>
   </si>
   <si>
-    <t>AHMED</t>
-  </si>
-  <si>
     <t>AppointmentType</t>
   </si>
   <si>
@@ -112,19 +109,22 @@
     <t>MaxTimeFrameValue</t>
   </si>
   <si>
-    <t>General Medicine</t>
-  </si>
-  <si>
     <t>John Smith</t>
   </si>
   <si>
-    <t>GREETINGS</t>
-  </si>
-  <si>
-    <t>FROM</t>
-  </si>
-  <si>
-    <t>VENUS</t>
+    <t>General Medicine (New Patient)</t>
+  </si>
+  <si>
+    <t>MARSHANDA</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>CAPRIO</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647A0E12-8EBA-462A-B301-F7F8A4C2A9C6}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,7 +519,7 @@
     <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.7265625" bestFit="1" customWidth="1"/>
@@ -566,16 +566,16 @@
         <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -616,19 +616,19 @@
         <v>10561</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +664,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(RANDBETWEEN(1,31),"00")</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -673,7 +673,7 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(1900, 2025)</f>
-        <v>2014</v>
+        <v>1990</v>
       </c>
     </row>
   </sheetData>
